--- a/2des/03-bcd/aula05/03.projeto_onibus/onibus_normalizados.xlsx
+++ b/2des/03-bcd/aula05/03.projeto_onibus/onibus_normalizados.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\senai2023\2des\03-bcd\aula05\normalizados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wellington.martins\Desktop\github\senai2023\2des\03-bcd\aula05\03.projeto_onibus\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66FFA00-35C4-4169-9472-1041DA653587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dados_brutos" sheetId="1" r:id="rId1"/>
@@ -24,17 +25,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -216,7 +206,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -545,11 +535,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,11 +679,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,11 +747,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,11 +847,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,11 +915,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,11 +983,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
